--- a/templates/quotation_template_new.xlsx
+++ b/templates/quotation_template_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{611BAEBE-D2EA-4D76-8710-98AACEB7ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E05837-88F5-43D4-82E8-A17C62C0A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Quotation Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -250,12 +249,6 @@
     <t>In words: {{Quote.In_words__c}}</t>
   </si>
   <si>
-    <t>Discount {{Quote.Discount__c}} %</t>
-  </si>
-  <si>
-    <t>{{Quote.Discount_Amount__c\# #,##0.##}}</t>
-  </si>
-  <si>
     <t>TOTAL:</t>
   </si>
   <si>
@@ -278,6 +271,12 @@
   </si>
   <si>
     <t>FOR AND ON BEHALF OF SELLER</t>
+  </si>
+  <si>
+    <t>Discount:{{TableStart:QuoteDiscount}} {{Quote.Discount__c}} %</t>
+  </si>
+  <si>
+    <t>{{Quote.Discount_Amount__c\# #,##0.##}} {{TableEnd:QuoteDiscount}}</t>
   </si>
 </sst>
 </file>
@@ -504,25 +503,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -530,7 +522,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -862,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="C45:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,43 +875,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="7"/>
@@ -923,14 +922,14 @@
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
@@ -942,21 +941,21 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7"/>
@@ -964,8 +963,8 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
@@ -986,17 +985,17 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="7"/>
@@ -1011,66 +1010,66 @@
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="7"/>
@@ -1082,8 +1081,8 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
@@ -1102,15 +1101,15 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="7"/>
@@ -1122,131 +1121,131 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:14" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1274,9 +1273,9 @@
       <c r="K24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1347,19 +1346,19 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="16" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9" t="s">
         <v>66</v>
       </c>
       <c r="L27" s="7"/>
@@ -1369,17 +1368,17 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="16" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9" t="s">
         <v>68</v>
       </c>
       <c r="L28" s="7"/>
@@ -1388,7 +1387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>70</v>
       </c>
@@ -1402,12 +1401,12 @@
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
       <c r="K29" s="30" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="32"/>
       <c r="N29" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -1421,46 +1420,46 @@
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="16" t="s">
-        <v>73</v>
+      <c r="K30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="8"/>
       <c r="N30" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="K32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="B32" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="K32" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
     </row>
     <row r="35" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="K36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="B36" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="K36" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -1485,8 +1484,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="G9:N9"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:N18"/>
     <mergeCell ref="C20:N20"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="E3:J3"/>
@@ -1515,6 +1512,8 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:N18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
